--- a/Screenshots/_yahoo.xlsx
+++ b/Screenshots/_yahoo.xlsx
@@ -7,17 +7,17 @@
     <workbookView xWindow="240" yWindow="45" windowWidth="28380" windowHeight="12915"/>
   </bookViews>
   <sheets>
-    <sheet name="NoGen" sheetId="4" r:id="rId1"/>
+    <sheet name="URLs" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_nogen" localSheetId="0">NoGen!#REF!</definedName>
-    <definedName name="_Screenshots" localSheetId="0">NoGen!#REF!</definedName>
-    <definedName name="_Screenshots_1" localSheetId="0">NoGen!#REF!</definedName>
-    <definedName name="_Screenshots_2" localSheetId="0">NoGen!#REF!</definedName>
-    <definedName name="_yahoo" localSheetId="0">NoGen!$B$3:$F$843</definedName>
-    <definedName name="header" localSheetId="0">NoGen!#REF!</definedName>
-    <definedName name="new_1" localSheetId="0">NoGen!#REF!</definedName>
-    <definedName name="tmp" localSheetId="0">NoGen!#REF!</definedName>
+    <definedName name="_nogen" localSheetId="0">URLs!#REF!</definedName>
+    <definedName name="_Screenshots" localSheetId="0">URLs!#REF!</definedName>
+    <definedName name="_Screenshots_1" localSheetId="0">URLs!#REF!</definedName>
+    <definedName name="_Screenshots_2" localSheetId="0">URLs!#REF!</definedName>
+    <definedName name="_yahoo" localSheetId="0">URLs!$B$3:$F$843</definedName>
+    <definedName name="header" localSheetId="0">URLs!#REF!</definedName>
+    <definedName name="new_1" localSheetId="0">URLs!#REF!</definedName>
+    <definedName name="tmp" localSheetId="0">URLs!#REF!</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -6024,9 +6024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F843"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
